--- a/respijtdagen.xlsx
+++ b/respijtdagen.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\AE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/621edfacaff80cea/Documenten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C489705C-85B7-4979-A668-DCC0D1E57421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="408" documentId="8_{AF928DCD-F9E0-4EF3-B6F8-57918D227DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2031EB44-83E4-496A-945F-57EDEA790D7D}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-735" windowWidth="21630" windowHeight="13193" xr2:uid="{BC075364-0DCD-4B86-9348-3FDFF9FA2B07}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{331D62EE-8F42-4D22-B3E5-8191758E226B}"/>
   </bookViews>
   <sheets>
-    <sheet name="2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,15 +36,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
-  <si>
-    <t>naam kind</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="118">
+  <si>
+    <t>Mohamed Lamine Samydiab</t>
+  </si>
+  <si>
+    <t>Opvang</t>
+  </si>
+  <si>
+    <t>Naam kind</t>
+  </si>
+  <si>
+    <t>Respijtdagen</t>
+  </si>
+  <si>
+    <t>Fauzia Al-Inad</t>
+  </si>
+  <si>
+    <t>Willy Almey</t>
+  </si>
+  <si>
+    <t>Maksymilian Bartnik</t>
+  </si>
+  <si>
+    <t>Mylo Blairon Calebout</t>
+  </si>
+  <si>
+    <t>Arthur Bonte</t>
+  </si>
+  <si>
+    <t>Amelie De Baere</t>
+  </si>
+  <si>
+    <t>Arwen De Clerck</t>
+  </si>
+  <si>
+    <t>Esmee De Cuyper</t>
+  </si>
+  <si>
+    <t>Sepp De Jaeger</t>
+  </si>
+  <si>
+    <t>Droomhuis</t>
+  </si>
+  <si>
+    <t>Wies De Smedt</t>
+  </si>
+  <si>
+    <t>Eloïse De Witte</t>
+  </si>
+  <si>
+    <t>Gabriël Deburggraeve</t>
+  </si>
+  <si>
+    <t>Lucas Dhanyns</t>
+  </si>
+  <si>
+    <t>Helena Ganobis</t>
+  </si>
+  <si>
+    <t>Bram Herman</t>
+  </si>
+  <si>
+    <t>Corneel Hoste</t>
+  </si>
+  <si>
+    <t>Medard Janssens</t>
+  </si>
+  <si>
+    <t>Svea Jolie</t>
+  </si>
+  <si>
+    <t>Harrie Lauwers</t>
+  </si>
+  <si>
+    <t>Liam Lazdaukas</t>
+  </si>
+  <si>
+    <t>Mia Paridaen</t>
+  </si>
+  <si>
+    <t>Liam Praet</t>
+  </si>
+  <si>
+    <t>Mayson Rodts</t>
+  </si>
+  <si>
+    <t>António Santos Benta</t>
+  </si>
+  <si>
+    <t>Mylano Stedehouder</t>
+  </si>
+  <si>
+    <t>Romée Van Daele</t>
+  </si>
+  <si>
+    <t>Maï-Ly Van de Voorde (mama)</t>
+  </si>
+  <si>
+    <t>Maï-Ly Van de Voorde (papa)</t>
+  </si>
+  <si>
+    <t>Aude Van Deynse</t>
+  </si>
+  <si>
+    <t>Mason Van Deynse</t>
+  </si>
+  <si>
+    <t>Lucas Van Overbeke</t>
+  </si>
+  <si>
+    <t>Floor Van Overbeke</t>
+  </si>
+  <si>
+    <t>Roan Vermaut</t>
+  </si>
+  <si>
+    <t>Finn Verschaffel</t>
+  </si>
+  <si>
+    <t>Luna Verschueren</t>
+  </si>
+  <si>
+    <t>Mathieu Willems</t>
   </si>
   <si>
     <t>opvangplan</t>
   </si>
   <si>
-    <t>opgebruikte respijtdagen</t>
+    <t>beginsaldo</t>
+  </si>
+  <si>
+    <t>opgenomen dagen</t>
+  </si>
+  <si>
+    <t>huidig saldo</t>
   </si>
   <si>
     <t>laatste update</t>
@@ -53,53 +179,225 @@
     <t>Babydroom</t>
   </si>
   <si>
+    <t>Matheo Boete</t>
+  </si>
+  <si>
+    <t>Eppo Caboor</t>
+  </si>
+  <si>
     <t>Florence Carlier</t>
   </si>
   <si>
-    <t>5 dagen</t>
-  </si>
-  <si>
-    <t>4 dagen</t>
-  </si>
-  <si>
-    <t>beginsaldo respijtdagen</t>
-  </si>
-  <si>
-    <t>huidig saldo</t>
-  </si>
-  <si>
-    <t>3 dagen</t>
-  </si>
-  <si>
-    <t>opvang</t>
-  </si>
-  <si>
-    <t>Eppo Caboor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matheo Boete </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mathis Boete </t>
-  </si>
-  <si>
-    <t>Kinderhof</t>
+    <t>Oscar de Hertogh</t>
+  </si>
+  <si>
+    <t>Remon De Rycke</t>
+  </si>
+  <si>
+    <t>Maëlie Deigers</t>
+  </si>
+  <si>
+    <t>Gérôme Gyselbrecht</t>
+  </si>
+  <si>
+    <t>Naud Heyneman</t>
+  </si>
+  <si>
+    <t>Lars Matthys De Zutter</t>
+  </si>
+  <si>
+    <t>Ledri Midili</t>
+  </si>
+  <si>
+    <t>Cyriel Van Acker</t>
+  </si>
+  <si>
+    <t>Olivia Van de Sompele</t>
+  </si>
+  <si>
+    <t>Loes Van den Eeckhout</t>
+  </si>
+  <si>
+    <t>Andreas Van der Gucht</t>
+  </si>
+  <si>
+    <t>Mila Van Elewyck</t>
+  </si>
+  <si>
+    <t>Célise Van Hyfte</t>
+  </si>
+  <si>
+    <t>Guust Van Landschoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorian Vandereet </t>
+  </si>
+  <si>
+    <t>August Vanhecke</t>
+  </si>
+  <si>
+    <t>Lore Vercauter</t>
+  </si>
+  <si>
+    <t>Bonnie Vermeire</t>
+  </si>
+  <si>
+    <t>Arnaud Verschuere</t>
+  </si>
+  <si>
+    <t>Marcel Verstichel</t>
+  </si>
+  <si>
+    <t>t Kinderhof</t>
+  </si>
+  <si>
+    <t>Ella Blondeel</t>
+  </si>
+  <si>
+    <t>Lionel Boey</t>
+  </si>
+  <si>
+    <t>Noélie Claeys</t>
+  </si>
+  <si>
+    <t>Noralié De Craene</t>
+  </si>
+  <si>
+    <t>Mira Declerck</t>
+  </si>
+  <si>
+    <t>Louis Denoble</t>
+  </si>
+  <si>
+    <t>Miel Kunkel</t>
+  </si>
+  <si>
+    <t>Liór Leliaert</t>
+  </si>
+  <si>
+    <t>Finn Maebe</t>
+  </si>
+  <si>
+    <t>Léa Steyaert</t>
+  </si>
+  <si>
+    <t>Athena Van Pottelberg</t>
+  </si>
+  <si>
+    <t>Henri Van Reeth</t>
+  </si>
+  <si>
+    <t>Nolan Verlee Gobert</t>
+  </si>
+  <si>
+    <t>Droomkind</t>
+  </si>
+  <si>
+    <t>Phéline Aspeslagh</t>
+  </si>
+  <si>
+    <t>Rayden Claeys</t>
+  </si>
+  <si>
+    <t>Corné Cleo</t>
+  </si>
+  <si>
+    <t>Dagraed Eloise</t>
+  </si>
+  <si>
+    <t>Lasse De Smet</t>
+  </si>
+  <si>
+    <t>Géraud Declercq</t>
+  </si>
+  <si>
+    <t>Thio Demaj</t>
+  </si>
+  <si>
+    <t>Ella Dobbelaere</t>
+  </si>
+  <si>
+    <t>Boris Goethals</t>
+  </si>
+  <si>
+    <t>Lucy Goethals</t>
+  </si>
+  <si>
+    <t>Remi Lammerteyn</t>
+  </si>
+  <si>
+    <t>Temur Lefter</t>
+  </si>
+  <si>
+    <t>Médard Martens</t>
+  </si>
+  <si>
+    <t>Laura Pastok</t>
+  </si>
+  <si>
+    <t>Pauline Quiquempoix</t>
+  </si>
+  <si>
+    <t>Borys Szymanski</t>
+  </si>
+  <si>
+    <t>Aurélie Tackaert</t>
+  </si>
+  <si>
+    <t>Minne Van Haecke</t>
+  </si>
+  <si>
+    <t>Tess Wallaert</t>
+  </si>
+  <si>
+    <t>Lewis Welvaert</t>
+  </si>
+  <si>
+    <t>wisselend</t>
+  </si>
+  <si>
+    <t>5 VM</t>
+  </si>
+  <si>
+    <t>2/3 NM</t>
+  </si>
+  <si>
+    <t>om de 2 weken</t>
+  </si>
+  <si>
+    <t>3 , vanaf nov 4</t>
+  </si>
+  <si>
+    <t>Mathis Boete</t>
+  </si>
+  <si>
+    <t>Arno Bogaert</t>
+  </si>
+  <si>
+    <t>2, vanaf okt 3</t>
+  </si>
+  <si>
+    <t>Léona Van hautem</t>
+  </si>
+  <si>
+    <t>3 NM</t>
+  </si>
+  <si>
+    <t>2 VM</t>
+  </si>
+  <si>
+    <t>Matthias Defruyt</t>
+  </si>
+  <si>
+    <t>Lionel Vermeersch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -115,7 +413,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -138,15 +436,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -480,137 +794,2402 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F102E7FD-645E-46E8-B843-CA17B75C46C0}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6826BE3B-148B-4C12-A604-33317C325BC3}">
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.875" customWidth="1"/>
-    <col min="7" max="7" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="1">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="F4" s="1">
+        <f>D4-E4</f>
+        <v>2.5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F91" si="0">D5-E5</f>
+        <v>21</v>
+      </c>
+      <c r="G5" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="G6" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>-26</v>
+      </c>
+      <c r="G7" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G8" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G9" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="G10" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>14.5</v>
+      </c>
+      <c r="G11" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G12" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G13" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="G14" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>-40</v>
+      </c>
+      <c r="G15" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G16" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="G17" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G18" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G19" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="G20" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="G21" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="G22" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="G23" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="1">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="G24" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>14.5</v>
+      </c>
+      <c r="G25" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="G26" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="G27" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G28" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+      <c r="G29" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="G30" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="1">
+        <v>10</v>
+      </c>
+      <c r="E31" s="1">
+        <v>19</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="G31" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="1">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G32" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="1">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G33" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E34" s="1">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="G34" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="G35" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="G36" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1">
+        <v>19</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G37" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="G38" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>13</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G39" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="13.9">
-      <c r="A2" s="1" t="s">
+      <c r="G40" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="G41" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="0"/>
+        <v>14.5</v>
+      </c>
+      <c r="G42" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="G43" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="1">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D44" s="1">
+        <v>19</v>
+      </c>
+      <c r="E44" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+      <c r="G44" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1">
+        <v>24</v>
+      </c>
+      <c r="E45" s="1">
+        <v>3</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G45" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D46" s="1">
+        <v>7</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G46" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1">
+        <v>19</v>
+      </c>
+      <c r="E47" s="1">
+        <v>4</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G47" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D48" s="1">
+        <v>17</v>
+      </c>
+      <c r="E48" s="1">
+        <v>7</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G48" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5</v>
+      </c>
+      <c r="D49" s="1">
+        <v>24</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G49" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="E50" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G50" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="1">
+        <v>3</v>
+      </c>
+      <c r="D51" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="E51" s="1">
+        <v>7</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="G51" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="1">
+        <v>22</v>
+      </c>
+      <c r="E52" s="1">
+        <v>7</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G52" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1">
+        <v>24</v>
+      </c>
+      <c r="E53" s="1">
+        <v>4</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G53" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1">
+        <v>11</v>
+      </c>
+      <c r="E54" s="1">
+        <v>5</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G54" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1">
+        <v>19</v>
+      </c>
+      <c r="E55" s="1">
+        <v>15</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G55" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="1">
+        <v>4</v>
+      </c>
+      <c r="D56" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="G56" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="1">
+        <v>4</v>
+      </c>
+      <c r="D57" s="1">
+        <v>19</v>
+      </c>
+      <c r="E57" s="1">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F57" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D2" s="1">
+      <c r="G57" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1">
+        <v>3</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G58" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="E59" s="1">
+        <v>4</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="G59" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1">
+        <v>10</v>
+      </c>
+      <c r="E60" s="1">
+        <v>4</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G60" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D61" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="G61" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D62" s="1">
+        <v>7</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G62" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="1">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="E63" s="1">
+        <v>7</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="G63" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="E64" s="1">
+        <v>4</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="G64" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="1">
+        <v>4</v>
+      </c>
+      <c r="D65" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="E65" s="1">
+        <v>11</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="G65" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="1">
+        <v>4</v>
+      </c>
+      <c r="D66" s="1">
         <v>19</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E66" s="1">
+        <v>3</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G66" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <f>D67-E67</f>
+        <v>9.5</v>
+      </c>
+      <c r="G67" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D68" s="1">
+        <v>7</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F68" s="1">
+        <f>D68-E68</f>
+        <v>4.5</v>
+      </c>
+      <c r="G68" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="1">
+        <v>4</v>
+      </c>
+      <c r="D69" s="1">
+        <v>16</v>
+      </c>
+      <c r="E69" s="1">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F69" s="1">
+        <f>D69-E69</f>
+        <v>6</v>
+      </c>
+      <c r="G69" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="1">
+        <v>5</v>
+      </c>
+      <c r="D70" s="1">
+        <v>14</v>
+      </c>
+      <c r="E70" s="1">
+        <v>4</v>
+      </c>
+      <c r="F70" s="1">
+        <f>D70-E70</f>
+        <v>10</v>
+      </c>
+      <c r="G70" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="1">
+        <v>3</v>
+      </c>
+      <c r="D71" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <f>D71-E71</f>
+        <v>14.5</v>
+      </c>
+      <c r="G71" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D72" s="1">
+        <v>3</v>
+      </c>
+      <c r="E72" s="1">
+        <v>7</v>
+      </c>
+      <c r="F72" s="1">
+        <f>D72-E72</f>
+        <v>-4</v>
+      </c>
+      <c r="G72" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="1">
+        <v>5</v>
+      </c>
+      <c r="D73" s="1">
+        <v>8</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <f>D73-E73</f>
+        <v>8</v>
+      </c>
+      <c r="G73" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="E74" s="1">
+        <v>8</v>
+      </c>
+      <c r="F74" s="1">
+        <f>D74-E74</f>
+        <v>8.5</v>
+      </c>
+      <c r="G74" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1">
+        <v>3</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
+        <f>D75-E75</f>
+        <v>3</v>
+      </c>
+      <c r="G75" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="1">
+        <v>5</v>
+      </c>
+      <c r="D76" s="1">
+        <v>20</v>
+      </c>
+      <c r="E76" s="1">
         <v>9</v>
       </c>
-      <c r="G2" s="3">
-        <v>45894</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="13.9">
-      <c r="A3" s="1" t="s">
+      <c r="F76" s="1">
+        <f>D76-E76</f>
+        <v>11</v>
+      </c>
+      <c r="G76" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D77" s="1">
+        <v>24</v>
+      </c>
+      <c r="E77" s="1">
+        <v>12</v>
+      </c>
+      <c r="F77" s="1">
+        <f>D77-E77</f>
+        <v>12</v>
+      </c>
+      <c r="G77" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" s="1">
+        <v>5</v>
+      </c>
+      <c r="D78" s="1">
+        <v>5</v>
+      </c>
+      <c r="E78" s="1">
+        <v>3</v>
+      </c>
+      <c r="F78" s="1">
+        <f>D78-E78</f>
+        <v>2</v>
+      </c>
+      <c r="G78" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" s="1">
+        <v>5</v>
+      </c>
+      <c r="D79" s="1">
+        <v>17</v>
+      </c>
+      <c r="E79" s="1">
+        <v>7</v>
+      </c>
+      <c r="F79" s="1">
+        <f>D79-E79</f>
+        <v>10</v>
+      </c>
+      <c r="G79" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1">
+        <f>D80-E80</f>
+        <v>2.5</v>
+      </c>
+      <c r="G80" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" s="1">
+        <v>5</v>
+      </c>
+      <c r="D81" s="1">
+        <v>16</v>
+      </c>
+      <c r="E81" s="1">
+        <v>7</v>
+      </c>
+      <c r="F81" s="1">
+        <f>D81-E81</f>
+        <v>9</v>
+      </c>
+      <c r="G81" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="1">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1">
+        <f>D82-E82</f>
+        <v>8.5</v>
+      </c>
+      <c r="G82" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" s="1">
+        <v>5</v>
+      </c>
+      <c r="D83" s="1">
+        <v>24</v>
+      </c>
+      <c r="E83" s="1">
+        <v>13</v>
+      </c>
+      <c r="F83" s="1">
+        <f>D83-E83</f>
+        <v>11</v>
+      </c>
+      <c r="G83" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1">
+        <v>6</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1">
+        <f>D84-E84</f>
+        <v>6</v>
+      </c>
+      <c r="G84" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2</v>
+      </c>
+      <c r="D85" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="E85" s="1">
+        <v>3</v>
+      </c>
+      <c r="F85" s="1">
+        <f>D85-E85</f>
+        <v>6.5</v>
+      </c>
+      <c r="G85" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" s="1">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D86" s="1">
+        <v>19</v>
+      </c>
+      <c r="E86" s="1">
+        <v>9</v>
+      </c>
+      <c r="F86" s="1">
+        <f>D86-E86</f>
+        <v>10</v>
+      </c>
+      <c r="G86" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" s="1">
+        <v>3</v>
+      </c>
+      <c r="D87" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="E87" s="1">
+        <v>3</v>
+      </c>
+      <c r="F87" s="1">
+        <f>D87-E87</f>
+        <v>10.5</v>
+      </c>
+      <c r="G87" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" s="1">
+        <v>3</v>
+      </c>
+      <c r="D88" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="E88" s="1">
+        <v>2</v>
+      </c>
+      <c r="F88" s="1">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="G88" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2</v>
+      </c>
+      <c r="D89" s="1">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G89" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" s="1">
+        <v>3</v>
+      </c>
+      <c r="D90" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="G90" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C91" s="1">
+        <v>4</v>
+      </c>
+      <c r="D91" s="1">
+        <v>19</v>
+      </c>
+      <c r="E91" s="1">
+        <v>11</v>
+      </c>
+      <c r="F91" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G91" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2</v>
+      </c>
+      <c r="D92" s="1">
+        <v>8</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <f t="shared" ref="F92:F101" si="1">D92-E92</f>
+        <v>8</v>
+      </c>
+      <c r="G92" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C93" s="1">
+        <v>3</v>
+      </c>
+      <c r="D93" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="E93" s="1">
+        <v>3</v>
+      </c>
+      <c r="F93" s="1">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="G93" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C94" s="1">
+        <v>5</v>
+      </c>
+      <c r="D94" s="1">
+        <v>24</v>
+      </c>
+      <c r="E94" s="1">
+        <v>2</v>
+      </c>
+      <c r="F94" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="G94" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C95" s="1">
+        <v>5</v>
+      </c>
+      <c r="D95" s="1">
+        <v>16</v>
+      </c>
+      <c r="E95" s="1">
+        <v>9</v>
+      </c>
+      <c r="F95" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G95" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C96" s="1">
+        <v>5</v>
+      </c>
+      <c r="D96" s="1">
+        <v>24</v>
+      </c>
+      <c r="E96" s="1">
+        <v>20</v>
+      </c>
+      <c r="F96" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G96" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C97" s="1">
+        <v>3</v>
+      </c>
+      <c r="D97" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="E97" s="1">
+        <v>7</v>
+      </c>
+      <c r="F97" s="1">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="G97" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C98" s="1">
+        <v>5</v>
+      </c>
+      <c r="D98" s="1">
+        <v>24</v>
+      </c>
+      <c r="E98" s="1">
+        <v>11</v>
+      </c>
+      <c r="F98" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="G98" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" s="1">
+        <v>5</v>
+      </c>
+      <c r="D99" s="1">
+        <v>24</v>
+      </c>
+      <c r="E99" s="1">
+        <v>11</v>
+      </c>
+      <c r="F99" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="G99" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C100" s="1">
+        <v>4</v>
+      </c>
+      <c r="D100" s="1">
+        <v>19</v>
+      </c>
+      <c r="E100" s="1">
+        <v>11</v>
+      </c>
+      <c r="F100" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G100" s="5">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D101" s="1">
+        <v>10</v>
+      </c>
+      <c r="E101" s="1">
+        <v>4</v>
+      </c>
+      <c r="F101" s="1">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D3" s="1">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2">
-        <v>19</v>
-      </c>
-      <c r="G3" s="3">
-        <v>45894</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="13.9">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2">
-        <v>8</v>
-      </c>
-      <c r="G4" s="3">
-        <v>45894</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="13.9">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2">
-        <v>8</v>
-      </c>
-      <c r="G5" s="3">
-        <v>45894</v>
+      <c r="G101" s="5">
+        <v>45895</v>
       </c>
     </row>
   </sheetData>
